--- a/型值表.xlsx
+++ b/型值表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9782A378-5E74-404D-B7E7-EAF9D08202E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DB9AE-044A-42A5-87D1-092F50C78C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,13 +256,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,201 +546,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -898,7 +898,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -906,65 +906,65 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6">
-        <v>870.62</v>
-      </c>
-      <c r="E6">
-        <v>1535.27</v>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>1640.2</v>
-      </c>
-      <c r="G6">
-        <v>1408.2</v>
-      </c>
-      <c r="H6">
-        <v>1037.01</v>
-      </c>
-      <c r="I6">
-        <v>1001.52</v>
-      </c>
-      <c r="J6">
-        <v>1754.48</v>
+        <v>635.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>3624.44</v>
+        <v>791.18</v>
       </c>
       <c r="L6">
-        <v>5584.97</v>
+        <v>3643.44</v>
       </c>
       <c r="M6">
-        <v>7065.33</v>
+        <v>5332.89</v>
       </c>
       <c r="N6">
-        <v>8248.23</v>
+        <v>6788.38</v>
       </c>
       <c r="O6">
-        <v>9230.61</v>
+        <v>7923.09</v>
       </c>
       <c r="P6">
-        <v>10016.99</v>
+        <v>8815.7900000000009</v>
       </c>
       <c r="Q6">
-        <v>10696.12</v>
+        <v>9565.84</v>
       </c>
       <c r="R6">
-        <v>11292.52</v>
+        <v>10231.620000000001</v>
       </c>
       <c r="S6">
-        <v>11798.73</v>
+        <v>10787.64</v>
       </c>
       <c r="T6">
-        <v>12205.23</v>
+        <v>11250.05</v>
       </c>
       <c r="U6">
-        <v>12542.5</v>
+        <v>11615.04</v>
       </c>
       <c r="V6">
-        <v>12748.08</v>
+        <v>11873.15</v>
       </c>
       <c r="W6">
-        <v>12809.03</v>
+        <v>11947.46</v>
       </c>
       <c r="X6" t="s">
         <v>37</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -983,65 +983,65 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
+      <c r="D7">
+        <v>870.62</v>
+      </c>
+      <c r="E7">
+        <v>1535.27</v>
       </c>
       <c r="F7">
-        <v>635.6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
+        <v>1640.2</v>
+      </c>
+      <c r="G7">
+        <v>1408.2</v>
+      </c>
+      <c r="H7">
+        <v>1037.01</v>
+      </c>
+      <c r="I7">
+        <v>1001.52</v>
+      </c>
+      <c r="J7">
+        <v>1754.48</v>
       </c>
       <c r="K7">
-        <v>791.18</v>
+        <v>3624.44</v>
       </c>
       <c r="L7">
-        <v>3643.44</v>
+        <v>5584.97</v>
       </c>
       <c r="M7">
-        <v>5332.89</v>
+        <v>7065.33</v>
       </c>
       <c r="N7">
-        <v>6788.38</v>
+        <v>8248.23</v>
       </c>
       <c r="O7">
-        <v>7923.09</v>
+        <v>9230.61</v>
       </c>
       <c r="P7">
-        <v>8815.7900000000009</v>
+        <v>10016.99</v>
       </c>
       <c r="Q7">
-        <v>9565.84</v>
+        <v>10696.12</v>
       </c>
       <c r="R7">
-        <v>10231.620000000001</v>
+        <v>11292.52</v>
       </c>
       <c r="S7">
-        <v>10787.64</v>
+        <v>11798.73</v>
       </c>
       <c r="T7">
-        <v>11250.05</v>
+        <v>12205.23</v>
       </c>
       <c r="U7">
-        <v>11615.04</v>
+        <v>12542.5</v>
       </c>
       <c r="V7">
-        <v>11873.15</v>
+        <v>12748.08</v>
       </c>
       <c r="W7">
-        <v>11947.46</v>
+        <v>12809.03</v>
       </c>
       <c r="X7" t="s">
         <v>37</v>
@@ -1411,22 +1411,22 @@
         <v>15904.46</v>
       </c>
       <c r="R12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W12">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X12" t="s">
         <v>37</v>
@@ -1550,37 +1550,37 @@
         <v>15879.63</v>
       </c>
       <c r="M14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W14">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X14" t="s">
         <v>37</v>
@@ -1621,43 +1621,43 @@
         <v>15898.51</v>
       </c>
       <c r="K15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W15">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X15" t="s">
         <v>37</v>
@@ -1692,49 +1692,49 @@
         <v>15890.25</v>
       </c>
       <c r="I16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W16">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X16" t="s">
         <v>37</v>
@@ -1766,52 +1766,52 @@
         <v>15909.21</v>
       </c>
       <c r="H17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W17">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X17" t="s">
         <v>37</v>
@@ -1837,58 +1837,58 @@
         <v>15761.91</v>
       </c>
       <c r="F18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W18">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X18" t="s">
         <v>37</v>
@@ -1914,58 +1914,58 @@
         <v>15907.92</v>
       </c>
       <c r="F19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W19">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X19" t="s">
         <v>37</v>
@@ -1988,61 +1988,61 @@
         <v>15729.86</v>
       </c>
       <c r="E20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W20">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X20" t="s">
         <v>37</v>
@@ -2065,61 +2065,61 @@
         <v>15780.85</v>
       </c>
       <c r="E21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W21">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X21" t="s">
         <v>37</v>
@@ -2142,61 +2142,61 @@
         <v>15782.28</v>
       </c>
       <c r="E22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W22">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X22" t="s">
         <v>37</v>
@@ -2219,61 +2219,61 @@
         <v>15782.56</v>
       </c>
       <c r="E23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W23">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X23" t="s">
         <v>37</v>
@@ -2296,61 +2296,61 @@
         <v>15782.79</v>
       </c>
       <c r="E24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W24">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X24" t="s">
         <v>37</v>
@@ -2373,61 +2373,61 @@
         <v>15783.48</v>
       </c>
       <c r="E25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W25">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X25" t="s">
         <v>37</v>
@@ -2450,61 +2450,61 @@
         <v>15784.84</v>
       </c>
       <c r="E26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W26">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X26" t="s">
         <v>37</v>
@@ -2527,61 +2527,61 @@
         <v>15789.77</v>
       </c>
       <c r="E27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W27">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X27" t="s">
         <v>37</v>
@@ -2604,61 +2604,61 @@
         <v>15747.65</v>
       </c>
       <c r="E28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="F28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="G28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="H28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="I28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W28">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X28" t="s">
         <v>37</v>
@@ -2693,49 +2693,49 @@
         <v>15907.13</v>
       </c>
       <c r="I29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="J29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="K29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="L29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="M29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="N29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="O29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="P29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="Q29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="R29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="S29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="T29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="U29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="V29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="W29">
-        <v>159200</v>
+        <v>15920</v>
       </c>
       <c r="X29" t="s">
         <v>37</v>
@@ -3362,21 +3362,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -3388,18 +3390,16 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/型值表.xlsx
+++ b/型值表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\本科课程\船舶设计原理\大作业\船舶设计原理上学期部分\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32304\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DB9AE-044A-42A5-87D1-092F50C78C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4BDCD2-5A26-45E6-A922-6EC67A66EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="45">
   <si>
     <t>站号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,28 @@
     <t>1646,01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>2404.5/3949.18/7892.35</t>
+  </si>
+  <si>
+    <t>1654.67/12303.78/22955.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5456.37/7896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3675.27/9562.73/18663.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4670.2/9335.11/15301.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -250,10 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,203 +571,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="27" width="25.109375" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="24.88671875" customWidth="1"/>
+    <col min="30" max="36" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:36" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -818,8 +850,41 @@
       <c r="Y4" t="s">
         <v>37</v>
       </c>
+      <c r="Z4" s="2">
+        <v>11350.5</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>11914.88</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>12926.17</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>14713.61</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>17955.28</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>19858.95</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>19977</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -895,8 +960,41 @@
       <c r="Y5" t="s">
         <v>37</v>
       </c>
+      <c r="Z5" s="2">
+        <v>9887.75</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>10350.18</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>11323.25</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>12809.35</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>15027.31</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>19137.830000000002</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>19749.96</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>19868</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -972,8 +1070,41 @@
       <c r="Y6" t="s">
         <v>37</v>
       </c>
+      <c r="Z6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>8295.59</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>9165.56</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>10406.719999999999</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>12076.45</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>14631.32</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>19584.599999999999</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>19620.97</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>19739</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.75</v>
       </c>
@@ -1049,8 +1180,41 @@
       <c r="Y7" t="s">
         <v>37</v>
       </c>
+      <c r="Z7" s="2">
+        <v>507.43</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>7165.95</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>8156.98</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>9255.44</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>10770.53</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>12977.29</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>16451.73</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>19560.97</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>19679</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1126,8 +1290,41 @@
       <c r="Y8" t="s">
         <v>37</v>
       </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1479.33</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>7119.01</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>8239.7099999999991</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>9556.2800000000007</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>11495.35</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>14454.89</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>19502.98</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>19621</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.5</v>
       </c>
@@ -1203,8 +1400,41 @@
       <c r="Y9" t="s">
         <v>37</v>
       </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>296.48</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2979.82</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>6195.04</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>7614.75</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>9104.48</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>11327.06</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>15065.05</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>19411.990000000002</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>19530</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1280,8 +1510,41 @@
       <c r="Y10" t="s">
         <v>37</v>
       </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>979.78</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>3487.06</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>5732.25</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>7292.34</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>9083.2900000000009</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>11993.76</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>19356</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>19474</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.5</v>
       </c>
@@ -1357,8 +1620,41 @@
       <c r="Y11" t="s">
         <v>37</v>
       </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>231.2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1531.93</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>3563.97</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>5515.18</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>7333.8</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>9730.7800000000007</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1434,8 +1730,41 @@
       <c r="Y12" t="s">
         <v>37</v>
       </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>511.86</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1758.03</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>3531.07</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>5571.74</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>7923.77</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.5</v>
       </c>
@@ -1511,8 +1840,41 @@
       <c r="Y13" t="s">
         <v>37</v>
       </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>638.45000000000005</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1821.25</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>3562.98</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>6045.03</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1588,8 +1950,41 @@
       <c r="Y14" t="s">
         <v>37</v>
       </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>99.05</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>699.69</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1924.19</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>3979.14</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4.5</v>
       </c>
@@ -1665,8 +2060,41 @@
       <c r="Y15" t="s">
         <v>37</v>
       </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>155.34</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>835.24</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>2381.4699999999998</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1742,8 +2170,41 @@
       <c r="Y16" t="s">
         <v>37</v>
       </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>270.88</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1297.17</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5.5</v>
       </c>
@@ -1819,8 +2280,41 @@
       <c r="Y17" t="s">
         <v>37</v>
       </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>12.19</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>585.82000000000005</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1896,8 +2390,41 @@
       <c r="Y18" t="s">
         <v>37</v>
       </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>205.64</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6.5</v>
       </c>
@@ -1973,8 +2500,41 @@
       <c r="Y19" t="s">
         <v>37</v>
       </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>64.84</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -2050,8 +2610,41 @@
       <c r="Y20" t="s">
         <v>37</v>
       </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -2127,8 +2720,41 @@
       <c r="Y21" t="s">
         <v>37</v>
       </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -2204,8 +2830,41 @@
       <c r="Y22" t="s">
         <v>37</v>
       </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -2281,8 +2940,41 @@
       <c r="Y23" t="s">
         <v>37</v>
       </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11</v>
       </c>
@@ -2358,8 +3050,41 @@
       <c r="Y24" t="s">
         <v>37</v>
       </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -2435,8 +3160,41 @@
       <c r="Y25" t="s">
         <v>37</v>
       </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -2512,8 +3270,41 @@
       <c r="Y26" t="s">
         <v>37</v>
       </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>14</v>
       </c>
@@ -2589,8 +3380,41 @@
       <c r="Y27" t="s">
         <v>37</v>
       </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>19340</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>19458</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -2666,8 +3490,41 @@
       <c r="Y28" t="s">
         <v>37</v>
       </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>19478.97</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>19589.02</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>16</v>
       </c>
@@ -2743,8 +3600,41 @@
       <c r="Y29" t="s">
         <v>37</v>
       </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>200.86</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>19760.95</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>19871.02</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>17</v>
       </c>
@@ -2820,8 +3710,41 @@
       <c r="Y30" t="s">
         <v>37</v>
       </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>164.85</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>1281.46</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>20042.96</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>20161</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>17.5</v>
       </c>
@@ -2897,8 +3820,41 @@
       <c r="Y31" t="s">
         <v>37</v>
       </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>35.94</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>666.61</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>2703.79</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>20186.95</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>20305</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2974,8 +3930,41 @@
       <c r="Y32" t="s">
         <v>37</v>
       </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>515.07000000000005</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1933.86</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>14701.19</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>20356.919999999998</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>20475</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>18.5</v>
       </c>
@@ -3051,8 +4040,41 @@
       <c r="Y33" t="s">
         <v>37</v>
       </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>59.66</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>584.99</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>1994.07</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>13911.71</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>19396.38</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>20569.900000000001</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>20688</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>19</v>
       </c>
@@ -3128,8 +4150,41 @@
       <c r="Y34" t="s">
         <v>37</v>
       </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>208.77</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>958.89</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>2730.58</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>15717.46</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>19744.849999999999</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>20844</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>22991.34</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>23109.54</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>19.5</v>
       </c>
@@ -3205,8 +4260,41 @@
       <c r="Y35" t="s">
         <v>37</v>
       </c>
+      <c r="Z35" s="2">
+        <v>155.03</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>614.72</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1812.78</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>18678.32</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>21191</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>23306.97</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>23482.65</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
@@ -3282,8 +4370,41 @@
       <c r="Y36">
         <v>6969.67</v>
       </c>
+      <c r="Z36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>18663.27</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>23336.16</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>21524</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>23622.61</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>24754</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3358,6 +4479,39 @@
       </c>
       <c r="Y37">
         <v>1964.05</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
